--- a/DATA FINAL PROJECT.xlsx
+++ b/DATA FINAL PROJECT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noerf\Desktop\FINAL PROJECT NP\FinalProjectNP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C7B723-A109-49CF-A4E4-0B12C7A99903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB206BC-9961-476B-B749-79C73A7DFAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5402DEE4-B815-453D-BC24-A5148D19E5D1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
   <si>
     <t>G0/0/0</t>
   </si>
@@ -142,42 +142,9 @@
     <t>PC11</t>
   </si>
   <si>
-    <t>192.168.10.3/28</t>
-  </si>
-  <si>
-    <t>192.168.10.4/28</t>
-  </si>
-  <si>
-    <t>192.168.10.5/28</t>
-  </si>
-  <si>
-    <t>192.168.10.6/28</t>
-  </si>
-  <si>
-    <t>192.168.10.7/28</t>
-  </si>
-  <si>
-    <t>192.168.20.3/28</t>
-  </si>
-  <si>
-    <t>192.168.20.4/28</t>
-  </si>
-  <si>
-    <t>192.168.20.5/28</t>
-  </si>
-  <si>
-    <t>192.168.20.6/28</t>
-  </si>
-  <si>
     <t>192.168.10.13/28</t>
   </si>
   <si>
-    <t>192.168.10.2/28</t>
-  </si>
-  <si>
-    <t>192.168.20.2/28</t>
-  </si>
-  <si>
     <t>NetController</t>
   </si>
   <si>
@@ -212,6 +179,9 @@
   </si>
   <si>
     <t>192.168.200.6/29</t>
+  </si>
+  <si>
+    <t>dhcp</t>
   </si>
 </sst>
 </file>
@@ -578,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30028CB-319A-4BC7-AEA9-4B3155CAE9A5}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,10 +646,10 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -696,15 +666,15 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -732,7 +702,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -743,7 +713,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -754,7 +724,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -765,7 +735,7 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -776,7 +746,7 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -787,7 +757,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -798,7 +768,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -809,7 +779,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -820,7 +790,7 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -831,7 +801,7 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -842,7 +812,7 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -853,51 +823,51 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
